--- a/biology/Biochimie/Tryptophane_désaminase/Tryptophane_désaminase.xlsx
+++ b/biology/Biochimie/Tryptophane_désaminase/Tryptophane_désaminase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tryptophane_d%C3%A9saminase</t>
+          <t>Tryptophane_désaminase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tryptophane désaminase (TDA) est une oxydoréductase capable de catalyser la libération du groupement amine primaire du tryptophane (W) avec production d'acide indole-pyruvique (AIP), d'ammoniac (ou d'ammonium en fonction du pH) et d'un coenzyme réduit, selon la réaction :
 L'acide indole-pyruvique est mis en évidence par sa complexation en un composé marron foncé en présence d'ions fer III (ferriques, 
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tryptophane_d%C3%A9saminase</t>
+          <t>Tryptophane_désaminase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Milieu et technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu classique est le milieu Urée-Tryptophane (Urée-Indole) contenant le L-tryptophane, de l'urée, du rouge de phénol, un peu d'éthanol solvant du tryptophane.
 Une suspension est réalisée dans ce milieu. Plus elle est dense, plus la réaction est rapide : elle peut être lue en moins de deux heures.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tryptophane_d%C3%A9saminase</t>
+          <t>Tryptophane_désaminase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La TDA comme la PDA caractérise un groupe d'Entérobactéries (Proteus, Providencia, Morganella, Tatumella).
 </t>
